--- a/test_speeches/predictions/Speech_7_AI.xlsx
+++ b/test_speeches/predictions/Speech_7_AI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,328 +436,350 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Sentence</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Simile</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Metaphor/Similie</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Rhetorical questions</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Stories / anecdotes</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Stories/Anecdotes</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Contrasts</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lists / Repetition </t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Moral conviction</t>
+          <t>Lists</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment of the collective</t>
+          <t>Repetition</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Ambitious goals / Setting high expectations</t>
+          <t>Moral_conviction</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Confidence in goals</t>
+          <t>Sentiment_of_the_collective</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Setting_high_expectations</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Hi Tom, Thanks for coming here today.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>So, why did I ask you here?</t>
+          <t>Hi Tom, Thanks for coming here today.</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>I believe we must rethink the course of our museum, and you are the key.</t>
+          <t>So, why did I ask you here?</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The pandemic dealt a heavy blow to our visitor numbers, and our young visitors abandoned us even before.</t>
+          <t>I believe we must rethink the course of our museum, and you are the key.</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Either we reverse this trend now, or we will fall into the abyss.</t>
+          <t>The pandemic dealt a heavy blow to our visitor numbers, and our young visitors abandoned us even before.</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.84</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.14</v>
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Museums, with their every rooms, are like episodes of a Netflix series about history and its valuable lessons.</t>
+          <t>Either we reverse this trend now, or we will fall into the abyss.</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>We must make sure that people keep watching our series, not only for economic but also for moral reasons.</t>
+          <t>Museums, with their every rooms, are like episodes of a Netflix series about history and its valuable lessons.</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>How do we make our museum into a great Netflix series?</t>
+          <t>We must make sure that people keep watching our series, not only for economic but also for moral reasons.</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -766,81 +788,87 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.01</v>
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>I have a plan, but I need your help for it.</t>
+          <t>How do we make our museum into a great Netflix series?</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I strolled the hallways of many museums, but only a few remained etched in my memory: The National Museum of Wales, the Getty Villa in Malibu, and the British Museum.</t>
+          <t>I have a plan, but I need your help for it.</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -852,69 +880,75 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Why?</t>
+          <t>I strolled the hallways of many museums, but only a few remained etched in my memory: The National Museum of Wales, the Getty Villa in Malibu, and the British Museum.</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Just like in a great Netflix series, their every episode was entertaining.</t>
+          <t>Why?</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -926,32 +960,35 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Of course, visitors were not watching TV, but their audio guides made the difference.</t>
+          <t>Just like in a great Netflix series, their every episode was entertaining.</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -963,53 +1000,59 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>I know what you might think: Really, the audio guides?</t>
+          <t>Of course, visitors were not watching TV, but their audio guides made the difference.</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>When I visited the British Museum, I saw a teenage girl arguing with her mother at the entrance.</t>
+          <t>I know what you might think: Really, the audio guides?</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1019,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1037,90 +1080,99 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>I heard the girl complaining: I don’t want to go there, please.</t>
+          <t>When I visited the British Museum, I saw a teenage girl arguing with her mother at the entrance.</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
       </c>
       <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Later, I saw that very girl with a smile on her face, looking at an ancient amphora.</t>
+          <t>I heard the girl complaining: I don’t want to go there, please.</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>I was baffled, but then it clicked for me.</t>
+          <t>Later, I saw that very girl with a smile on her face, looking at an ancient amphora.</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1130,13 +1182,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1148,32 +1200,35 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Their audio guides were not like a boring history professor but a master storyteller.</t>
+          <t>I was baffled, but then it clicked for me.</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.73</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1185,97 +1240,106 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>With a boring history professor as their companion, people can't wait to leave, and the treasures of history go unheard.</t>
+          <t>Their audio guides were not like a boring history professor but a master storyteller.</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The master storyteller instead brings history to live in every episode with all its beauty.</t>
+          <t>With a boring history professor as their companion, people can't wait to leave, and the treasures of history go unheard.</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.16</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.15</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>So, what is your role?</t>
+          <t>The master storyteller instead brings history to live in every episode with all its beauty.</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1284,106 +1348,115 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>I want you to champion the initiative to turn our audio guides from a boring history professor to a master storyteller.</t>
+          <t>So, what is your role?</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03</v>
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>I know this is a difficult task, but I know you can rise to the challenge.</t>
+          <t>I want you to champion the initiative to turn our audio guides from a boring history professor to a master storyteller.</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.36</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>0.27</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>I believe in you.</t>
+          <t>I know this is a difficult task, but I know you can rise to the challenge.</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -1392,35 +1465,38 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.04</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>You have the smarts, commitment, and experience to get it done.</t>
+          <t>I believe in you.</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -1429,35 +1505,38 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.04</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The new audio guides will drive our success.</t>
+          <t>You have the smarts, commitment, and experience to get it done.</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.06</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -1466,96 +1545,145 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.51</v>
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>My vision is that our museum reaches the top three museums in our region within the next three years.</t>
+          <t>The new audio guides will drive our success.</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.42</v>
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>My vision is that our museum reaches the top three museums in our region within the next three years.</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>I want to see our visitors with a gleam in their eyes and I want them to tell their family, friends and loved ones about our great master storyteller.</t>
         </is>
       </c>
-      <c r="C30" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="F30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="G30" t="n">
-        <v>1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.01</v>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test_speeches/predictions/Speech_7_AI.xlsx
+++ b/test_speeches/predictions/Speech_7_AI.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Metaphor/Similie</t>
+          <t>Metaphor/Simile</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -456,7 +456,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Stories/Anecdotes</t>
+          <t>Stories / anecdotes</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -466,27 +466,27 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Lists</t>
+          <t xml:space="preserve">Lists / Repetition </t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Repetition</t>
+          <t>Moral conviction</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Moral_conviction</t>
+          <t>Sentiment of the collective</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sentiment_of_the_collective</t>
+          <t>Ambitious goals / Setting high expectations</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Setting_high_expectations</t>
+          <t>Confidence in goals</t>
         </is>
       </c>
     </row>
